--- a/trend_results/Rivers/ManganuioteAoatRuatitiDomain_978943da46.xlsx
+++ b/trend_results/Rivers/ManganuioteAoatRuatitiDomain_978943da46.xlsx
@@ -441,7 +441,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>variable</t>
+          <t>parameter name</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -664,7 +664,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.711198740103739</v>
+        <v>0.288801259896261</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -697,7 +697,7 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Likely increasing</t>
+          <t>Unlikely increasing</t>
         </is>
       </c>
       <c r="Q3" t="n">
@@ -1210,7 +1210,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.872877333031525</v>
+        <v>0.127122666968475</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1243,7 +1243,7 @@
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Likely increasing</t>
+          <t>Unlikely increasing</t>
         </is>
       </c>
       <c r="Q9" t="n">
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>0.014392271666734</v>
+        <v>0.985607728333266</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1876,7 +1876,7 @@
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Extremely unlikely increasing</t>
+          <t>Extremely likely increasing</t>
         </is>
       </c>
       <c r="Q16" t="n">
@@ -2389,7 +2389,7 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0.446566854995055</v>
+        <v>0.553433145004945</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>

--- a/trend_results/Rivers/ManganuioteAoatRuatitiDomain_978943da46.xlsx
+++ b/trend_results/Rivers/ManganuioteAoatRuatitiDomain_978943da46.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W27"/>
+  <dimension ref="A1:W25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -569,35 +569,35 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope based on tied non-censored values</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0.10845636646012</v>
+        <v>0.40655411136905</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0204081632653061</v>
+        <v>0.024390243902439</v>
       </c>
       <c r="H2" t="n">
-        <v>0.653061224489796</v>
+        <v>0.634146341463415</v>
       </c>
       <c r="I2" t="n">
         <v>1</v>
       </c>
       <c r="J2" t="n">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="K2" t="n">
-        <v>-0.100671209108643</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>-0.298163265306123</v>
+        <v>-0.242691029900332</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0316724330236903</v>
+        <v>0.164386613265134</v>
       </c>
       <c r="N2" t="n">
-        <v>-3.66077124031431</v>
+        <v>0</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -606,7 +606,7 @@
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q2" t="n">
@@ -664,31 +664,31 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.288801259896261</v>
+        <v>0.102241480749488</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0.9090909090909089</v>
+        <v>0.945454545454545</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>11.27</v>
+        <v>11.31</v>
       </c>
       <c r="K3" t="n">
-        <v>-0.0456265761081503</v>
+        <v>-0.0880918003367599</v>
       </c>
       <c r="L3" t="n">
-        <v>-0.142509283263355</v>
+        <v>-0.143931743602562</v>
       </c>
       <c r="M3" t="n">
-        <v>0.0326448063571792</v>
+        <v>0.006716199912325</v>
       </c>
       <c r="N3" t="n">
-        <v>-0.404849832370455</v>
+        <v>-0.778884176275508</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -755,28 +755,28 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0.345628497898675</v>
+        <v>0.460427237813098</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0.375</v>
+        <v>0.357142857142857</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0.008999999999999999</v>
+        <v>0.008</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>-0.0006701418381126</v>
+        <v>-0.0006819258417971</v>
       </c>
       <c r="M4" t="n">
-        <v>0.0012827256745064</v>
+        <v>0.0007435159590956</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -838,39 +838,39 @@
         <v>5</v>
       </c>
       <c r="D5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>0.08489390970273129</v>
+        <v>0.152036016958434</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0535714285714286</v>
+        <v>0.0363636363636364</v>
       </c>
       <c r="H5" t="n">
-        <v>0.625</v>
+        <v>0.672727272727273</v>
       </c>
       <c r="I5" t="n">
         <v>1</v>
       </c>
       <c r="J5" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K5" t="n">
-        <v>5.9926209319228</v>
+        <v>5.98770491803279</v>
       </c>
       <c r="L5" t="n">
-        <v>-0.477203131724374</v>
+        <v>-4.19957280099892</v>
       </c>
       <c r="M5" t="n">
-        <v>13.7598523640561</v>
+        <v>13.1895796128623</v>
       </c>
       <c r="N5" t="n">
-        <v>12.4846269415058</v>
+        <v>12.219805955169</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -879,7 +879,7 @@
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Very unlikely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q5" t="n">
@@ -937,16 +937,16 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>0.119446831071206</v>
+        <v>0.168575373327403</v>
       </c>
       <c r="G6" t="n">
-        <v>0.895833333333333</v>
+        <v>0.867924528301887</v>
       </c>
       <c r="H6" t="n">
-        <v>0.1875</v>
+        <v>0.188679245283019</v>
       </c>
       <c r="I6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J6" t="n">
         <v>0.005</v>
@@ -1028,7 +1028,7 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>0.143347132538836</v>
+        <v>0.918578376120242</v>
       </c>
       <c r="G7" t="n">
         <v>0.714285714285714</v>
@@ -1061,7 +1061,7 @@
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Very likely improving</t>
         </is>
       </c>
       <c r="Q7" t="n">
@@ -1119,10 +1119,10 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>0.302341622510189</v>
+        <v>0.0002815952365126</v>
       </c>
       <c r="G8" t="n">
-        <v>0.267857142857143</v>
+        <v>0.232142857142857</v>
       </c>
       <c r="H8" t="n">
         <v>0.678571428571429</v>
@@ -1131,19 +1131,19 @@
         <v>1</v>
       </c>
       <c r="J8" t="n">
-        <v>0.0415</v>
+        <v>0.044</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>0.0099192972632463</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>0.0033495438815968</v>
       </c>
       <c r="M8" t="n">
-        <v>0.0040773161630944</v>
+        <v>0.0149038633087759</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>22.5438574164689</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -1152,7 +1152,7 @@
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q8" t="n">
@@ -1202,7 +1202,7 @@
         <v>5</v>
       </c>
       <c r="D9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -1210,7 +1210,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.127122666968475</v>
+        <v>0.019607004146115</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1222,19 +1222,19 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>7.87</v>
+        <v>7.84</v>
       </c>
       <c r="K9" t="n">
-        <v>-0.0339623837700762</v>
+        <v>-0.0569974464463047</v>
       </c>
       <c r="L9" t="n">
-        <v>-0.0780149219653784</v>
+        <v>-0.116722655839948</v>
       </c>
       <c r="M9" t="n">
-        <v>0.0171077283372365</v>
+        <v>-0.025837030269252</v>
       </c>
       <c r="N9" t="n">
-        <v>-0.431542360483814</v>
+        <v>-0.72700824548858</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Unlikely increasing</t>
+          <t>Extremely unlikely increasing</t>
         </is>
       </c>
       <c r="Q9" t="n">
@@ -1297,31 +1297,31 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0.531311648813384</v>
+        <v>0.0060978008349758</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0892857142857143</v>
+        <v>0.0714285714285714</v>
       </c>
       <c r="H10" t="n">
-        <v>0.75</v>
+        <v>0.839285714285714</v>
       </c>
       <c r="I10" t="n">
         <v>2</v>
       </c>
       <c r="J10" t="n">
-        <v>0.044</v>
+        <v>0.055</v>
       </c>
       <c r="K10" t="n">
-        <v>-0.0003320454545454</v>
+        <v>0.0133046372626703</v>
       </c>
       <c r="L10" t="n">
-        <v>-0.0034238190554319</v>
+        <v>0.0028365096517086</v>
       </c>
       <c r="M10" t="n">
-        <v>0.0036920334862873</v>
+        <v>0.017527517437631</v>
       </c>
       <c r="N10" t="n">
-        <v>-0.754648760330579</v>
+        <v>24.1902495684914</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -1330,7 +1330,7 @@
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q10" t="n">
@@ -1373,46 +1373,46 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Suspended Sediment Concentration</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C11" t="n">
         <v>5</v>
       </c>
       <c r="D11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>0.24439599863806</v>
+        <v>0.0214800730142125</v>
       </c>
       <c r="G11" t="n">
-        <v>0.392857142857143</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="I11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>1</v>
+        <v>0.16</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>0.0183007260596546</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>0.00405268069938</v>
       </c>
       <c r="M11" t="n">
-        <v>0.175095877277085</v>
+        <v>0.0277024917936252</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>11.4379537872841</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -1421,7 +1421,7 @@
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q11" t="n">
@@ -1452,7 +1452,7 @@
       </c>
       <c r="W11" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -1464,46 +1464,46 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C12" t="n">
         <v>5</v>
       </c>
       <c r="D12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope based on tied non-censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>0.5</v>
+        <v>0.112475455343972</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0.5</v>
+        <v>0.446428571428571</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0.155</v>
+        <v>0.015</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>0.0006523340700555</v>
       </c>
       <c r="L12" t="n">
-        <v>-0.009970427661510401</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0.0141928344927802</v>
+        <v>0.0018755204596758</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>4.34889380037059</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -1512,7 +1512,7 @@
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q12" t="n">
@@ -1555,14 +1555,14 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Total Phosphorus</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C13" t="n">
         <v>5</v>
       </c>
       <c r="D13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -1570,31 +1570,31 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>0.0320165746124932</v>
+        <v>0.5</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0.446428571428571</v>
+        <v>0.857142857142857</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0.0145</v>
+        <v>1.04</v>
       </c>
       <c r="K13" t="n">
-        <v>0.0011839230557087</v>
+        <v>-0.0057560626873126</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>-0.116391218729894</v>
       </c>
       <c r="M13" t="n">
-        <v>0.0024821607527212</v>
+        <v>0.136477347730091</v>
       </c>
       <c r="N13" t="n">
-        <v>8.164986591094969</v>
+        <v>-0.553467566087753</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>Extremely unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q13" t="n">
@@ -1634,7 +1634,7 @@
       </c>
       <c r="W13" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>NTU/FNU</t>
         </is>
       </c>
     </row>
@@ -1646,46 +1646,46 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D14" t="b">
         <v>0</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>0.783671525595841</v>
+        <v>0.022837762713854</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>0.0842105263157895</v>
       </c>
       <c r="H14" t="n">
-        <v>0.857142857142857</v>
+        <v>0.557894736842105</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J14" t="n">
-        <v>1.175</v>
+        <v>2.75</v>
       </c>
       <c r="K14" t="n">
-        <v>-0.0612186838390966</v>
+        <v>-0.06646951774340321</v>
       </c>
       <c r="L14" t="n">
-        <v>-0.156458811990912</v>
+        <v>-0.145812515486057</v>
       </c>
       <c r="M14" t="n">
-        <v>0.06565144758105459</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>-5.21010075226354</v>
+        <v>-2.41707337248739</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -1694,7 +1694,7 @@
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q14" t="n">
@@ -1725,7 +1725,7 @@
       </c>
       <c r="W14" t="inlineStr">
         <is>
-          <t>NTU/FNU</t>
+          <t>m</t>
         </is>
       </c>
     </row>
@@ -1737,46 +1737,46 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Visual Clarity</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C15" t="n">
         <v>10</v>
       </c>
       <c r="D15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>0.231106463772889</v>
+        <v>0.945187234608619</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0707070707070707</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0.565656565656566</v>
+        <v>0.876106194690266</v>
       </c>
       <c r="I15" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>2.75</v>
+        <v>11.06</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>0.0262885669312751</v>
       </c>
       <c r="L15" t="n">
-        <v>-0.08316308701614521</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0.0561059907834101</v>
+        <v>0.0599924743367947</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>0.237690478582958</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -1785,7 +1785,7 @@
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Very likely increasing</t>
         </is>
       </c>
       <c r="Q15" t="n">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="W15" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -1828,14 +1828,14 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Dissolved Oxygen Concentration</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C16" t="n">
         <v>10</v>
       </c>
       <c r="D16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -1843,31 +1843,31 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>0.985607728333266</v>
+        <v>0.999852177095218</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0.872727272727273</v>
+        <v>0.258620689655172</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>10.925</v>
+        <v>0.01</v>
       </c>
       <c r="K16" t="n">
-        <v>0.0581036755505475</v>
+        <v>-0.0006156817164735</v>
       </c>
       <c r="L16" t="n">
-        <v>0.0074897470950104</v>
+        <v>-0.000871285660414</v>
       </c>
       <c r="M16" t="n">
-        <v>0.0989960397965951</v>
+        <v>-0.0003519975556925</v>
       </c>
       <c r="N16" t="n">
-        <v>0.531841423803639</v>
+        <v>-6.15681716473572</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -1876,7 +1876,7 @@
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Extremely likely increasing</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q16" t="n">
@@ -1907,7 +1907,7 @@
       </c>
       <c r="W16" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -1919,7 +1919,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Dissolved Reactive Phosphorus</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -1934,31 +1934,31 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>0.9837441606052439</v>
+        <v>0.07339832358813279</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>0.0263157894736842</v>
       </c>
       <c r="H17" t="n">
-        <v>0.265486725663717</v>
+        <v>0.491228070175439</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17" t="n">
-        <v>0.011</v>
+        <v>48</v>
       </c>
       <c r="K17" t="n">
-        <v>-0.0004809187054026</v>
+        <v>2.24692412850308</v>
       </c>
       <c r="L17" t="n">
-        <v>-0.0007966194111232</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>5.48197879705584</v>
       </c>
       <c r="N17" t="n">
-        <v>-4.37198823093319</v>
+        <v>4.68109193438141</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -1967,7 +1967,7 @@
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>Extremely likely improving</t>
+          <t>Very unlikely improving</t>
         </is>
       </c>
       <c r="Q17" t="n">
@@ -1998,7 +1998,7 @@
       </c>
       <c r="W17" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>E. coli/100 mL</t>
         </is>
       </c>
     </row>
@@ -2010,7 +2010,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>E. coli</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -2025,28 +2025,28 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>0.616742228135559</v>
+        <v>0.231934062630747</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0267857142857143</v>
+        <v>0.905660377358491</v>
       </c>
       <c r="H18" t="n">
-        <v>0.517857142857143</v>
+        <v>0.216981132075472</v>
       </c>
       <c r="I18" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="J18" t="n">
-        <v>48.5</v>
+        <v>0.005</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>-3.71669380418514</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>2.39901477832512</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -2058,7 +2058,7 @@
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q18" t="n">
@@ -2089,7 +2089,7 @@
       </c>
       <c r="W18" t="inlineStr">
         <is>
-          <t>E. coli/100 mL</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -2101,7 +2101,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Ammoniacal Nitrogen (NH4)</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -2116,19 +2116,19 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>0.525393990552148</v>
+        <v>0.9997183811561799</v>
       </c>
       <c r="G19" t="n">
-        <v>0.902912621359223</v>
+        <v>0.594827586206897</v>
       </c>
       <c r="H19" t="n">
-        <v>0.223300970873786</v>
+        <v>0.0862068965517241</v>
       </c>
       <c r="I19" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="J19" t="n">
-        <v>0.005</v>
+        <v>0.001</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -2149,7 +2149,7 @@
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q19" t="n">
@@ -2192,46 +2192,46 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Nitrite Nitrogen (NO2)</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C20" t="n">
         <v>10</v>
       </c>
       <c r="D20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>0.998882247197928</v>
+        <v>0.007455847251571</v>
       </c>
       <c r="G20" t="n">
-        <v>0.513274336283186</v>
+        <v>0.275862068965517</v>
       </c>
       <c r="H20" t="n">
-        <v>0.0884955752212389</v>
+        <v>0.629310344827586</v>
       </c>
       <c r="I20" t="n">
         <v>1</v>
       </c>
       <c r="J20" t="n">
-        <v>0.001</v>
+        <v>0.0435</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>0.000456877217169</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>0.0021855689277995</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>1.05029245326226</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
@@ -2240,7 +2240,7 @@
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>Virtually certain improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q20" t="n">
@@ -2283,7 +2283,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Nitrate Nitrogen (NO3)</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -2294,35 +2294,35 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>0.188448517932712</v>
+        <v>0.361338159310276</v>
       </c>
       <c r="G21" t="n">
-        <v>0.309734513274336</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0.628318584070796</v>
+        <v>0.699115044247788</v>
       </c>
       <c r="I21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0.035</v>
+        <v>7.89</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>-0.0048068366326344</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>-0.0245867614061331</v>
       </c>
       <c r="M21" t="n">
-        <v>0.0024947744206004</v>
+        <v>0.0162137243549169</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>-0.0609231512374456</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
@@ -2331,7 +2331,7 @@
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>As likely as not increasing</t>
         </is>
       </c>
       <c r="Q21" t="n">
@@ -2360,11 +2360,7 @@
           <t>Whai_5i</t>
         </is>
       </c>
-      <c r="W21" t="inlineStr">
-        <is>
-          <t>mg/L</t>
-        </is>
-      </c>
+      <c r="W21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2374,14 +2370,14 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C22" t="n">
         <v>10</v>
       </c>
       <c r="D22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -2389,31 +2385,31 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0.553433145004945</v>
+        <v>0.07307266465746989</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>0.103448275862069</v>
       </c>
       <c r="H22" t="n">
-        <v>0.709090909090909</v>
+        <v>0.681034482758621</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J22" t="n">
-        <v>7.89</v>
+        <v>0.049</v>
       </c>
       <c r="K22" t="n">
-        <v>0.0015763918860595</v>
+        <v>0.0012921326666171</v>
       </c>
       <c r="L22" t="n">
-        <v>-0.0199837892552299</v>
+        <v>-1.19541347115276e-05</v>
       </c>
       <c r="M22" t="n">
-        <v>0.0250796509104485</v>
+        <v>0.0031250855900789</v>
       </c>
       <c r="N22" t="n">
-        <v>0.0199796183277507</v>
+        <v>2.63700544207583</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -2422,7 +2418,7 @@
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>As likely as not increasing</t>
+          <t>Very unlikely improving</t>
         </is>
       </c>
       <c r="Q22" t="n">
@@ -2451,7 +2447,11 @@
           <t>Whai_5i</t>
         </is>
       </c>
-      <c r="W22" t="inlineStr"/>
+      <c r="W22" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2461,7 +2461,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>SIN (Soluble Inorganic nitrogen)</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C23" t="n">
@@ -2472,35 +2472,35 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>0.398789840444663</v>
+        <v>0.231657353217304</v>
       </c>
       <c r="G23" t="n">
-        <v>0.106194690265487</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0.584070796460177</v>
+        <v>0.431034482758621</v>
       </c>
       <c r="I23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0.045</v>
+        <v>0.15</v>
       </c>
       <c r="K23" t="n">
-        <v>7.12822014051522e-05</v>
+        <v>0.0025819287908997</v>
       </c>
       <c r="L23" t="n">
-        <v>-0.0006863193812891</v>
+        <v>-0.0016685298353537</v>
       </c>
       <c r="M23" t="n">
-        <v>0.0014923875624507</v>
+        <v>0.0071477495107632</v>
       </c>
       <c r="N23" t="n">
-        <v>0.158404892011449</v>
+        <v>1.7212858605998</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
@@ -2509,7 +2509,7 @@
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q23" t="n">
@@ -2552,7 +2552,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Suspended Sediment Concentration</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C24" t="n">
@@ -2563,35 +2563,35 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0.876564821509133</v>
+        <v>0.121413250282443</v>
       </c>
       <c r="G24" t="n">
-        <v>0.327433628318584</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0.194690265486726</v>
+        <v>0.267241379310345</v>
       </c>
       <c r="I24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>1</v>
+        <v>0.014</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>0.0001713586604831</v>
       </c>
       <c r="L24" t="n">
-        <v>-0.0533019179082424</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>0.0005180088363264</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>1.22399043202268</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
@@ -2600,7 +2600,7 @@
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q24" t="n">
@@ -2631,7 +2631,7 @@
       </c>
       <c r="W24" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -2643,14 +2643,14 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C25" t="n">
         <v>10</v>
       </c>
       <c r="D25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -2658,31 +2658,31 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>0.776143746400669</v>
+        <v>0.288289819896242</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0.495575221238938</v>
+        <v>0.827586206896552</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0.15</v>
+        <v>1.15</v>
       </c>
       <c r="K25" t="n">
-        <v>-0.0013287860865249</v>
+        <v>0.013091566032888</v>
       </c>
       <c r="L25" t="n">
-        <v>-0.0057400608932492</v>
+        <v>-0.0275401235382334</v>
       </c>
       <c r="M25" t="n">
-        <v>0.0024876335139568</v>
+        <v>0.0546609154524742</v>
       </c>
       <c r="N25" t="n">
-        <v>-0.885857391016627</v>
+        <v>1.13839704633808</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
@@ -2691,7 +2691,7 @@
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q25" t="n">
@@ -2721,188 +2721,6 @@
         </is>
       </c>
       <c r="W25" t="inlineStr">
-        <is>
-          <t>g/m3</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>Manganui o te Ao at Ruatiti Domain</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>Total Phosphorus</t>
-        </is>
-      </c>
-      <c r="C26" t="n">
-        <v>10</v>
-      </c>
-      <c r="D26" t="b">
-        <v>0</v>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>WARNING: Sen slope based on tied non-censored values</t>
-        </is>
-      </c>
-      <c r="F26" t="n">
-        <v>0.591514513791726</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0.274336283185841</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0.015</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" t="n">
-        <v>-0.0003727040816326</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0.0002733801095525</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="inlineStr">
-        <is>
-          <t>RepSite</t>
-        </is>
-      </c>
-      <c r="P26" t="inlineStr">
-        <is>
-          <t>As likely as not improving</t>
-        </is>
-      </c>
-      <c r="Q26" t="n">
-        <v>1789560.233</v>
-      </c>
-      <c r="R26" t="n">
-        <v>5646123.438</v>
-      </c>
-      <c r="S26" t="inlineStr">
-        <is>
-          <t>Ruapehu District</t>
-        </is>
-      </c>
-      <c r="T26" t="inlineStr">
-        <is>
-          <t>Whanganui</t>
-        </is>
-      </c>
-      <c r="U26" t="inlineStr">
-        <is>
-          <t>Pipiriki</t>
-        </is>
-      </c>
-      <c r="V26" t="inlineStr">
-        <is>
-          <t>Whai_5i</t>
-        </is>
-      </c>
-      <c r="W26" t="inlineStr">
-        <is>
-          <t>g/m3</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>Manganui o te Ao at Ruatiti Domain</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>Turbidity</t>
-        </is>
-      </c>
-      <c r="C27" t="n">
-        <v>10</v>
-      </c>
-      <c r="D27" t="b">
-        <v>0</v>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F27" t="n">
-        <v>0.637720812742138</v>
-      </c>
-      <c r="G27" t="n">
-        <v>0</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0.849557522123894</v>
-      </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="K27" t="n">
-        <v>-0.008536407302968001</v>
-      </c>
-      <c r="L27" t="n">
-        <v>-0.0660934000620889</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0.0318565568890338</v>
-      </c>
-      <c r="N27" t="n">
-        <v>-0.717345151509918</v>
-      </c>
-      <c r="O27" t="inlineStr">
-        <is>
-          <t>RepSite</t>
-        </is>
-      </c>
-      <c r="P27" t="inlineStr">
-        <is>
-          <t>As likely as not improving</t>
-        </is>
-      </c>
-      <c r="Q27" t="n">
-        <v>1789560.233</v>
-      </c>
-      <c r="R27" t="n">
-        <v>5646123.438</v>
-      </c>
-      <c r="S27" t="inlineStr">
-        <is>
-          <t>Ruapehu District</t>
-        </is>
-      </c>
-      <c r="T27" t="inlineStr">
-        <is>
-          <t>Whanganui</t>
-        </is>
-      </c>
-      <c r="U27" t="inlineStr">
-        <is>
-          <t>Pipiriki</t>
-        </is>
-      </c>
-      <c r="V27" t="inlineStr">
-        <is>
-          <t>Whai_5i</t>
-        </is>
-      </c>
-      <c r="W27" t="inlineStr">
         <is>
           <t>NTU/FNU</t>
         </is>

--- a/trend_results/Rivers/ManganuioteAoatRuatitiDomain_978943da46.xlsx
+++ b/trend_results/Rivers/ManganuioteAoatRuatitiDomain_978943da46.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="59">
   <si>
     <t>site name</t>
   </si>
@@ -136,37 +136,34 @@
     <t>RepSite</t>
   </si>
   <si>
+    <t>Likely improving</t>
+  </si>
+  <si>
+    <t>As likely as not increasing</t>
+  </si>
+  <si>
+    <t>Extremely unlikely improving</t>
+  </si>
+  <si>
     <t>As likely as not improving</t>
   </si>
   <si>
-    <t>Unlikely increasing</t>
+    <t>Very likely improving</t>
   </si>
   <si>
     <t>Unlikely improving</t>
   </si>
   <si>
-    <t>Very likely improving</t>
-  </si>
-  <si>
-    <t>Exceptionally unlikely improving</t>
-  </si>
-  <si>
     <t>Extremely unlikely increasing</t>
   </si>
   <si>
-    <t>Extremely unlikely improving</t>
-  </si>
-  <si>
-    <t>Very likely increasing</t>
+    <t>Very unlikely improving</t>
+  </si>
+  <si>
+    <t>Extremely likely increasing</t>
   </si>
   <si>
     <t>Virtually certain improving</t>
-  </si>
-  <si>
-    <t>Very unlikely improving</t>
-  </si>
-  <si>
-    <t>As likely as not increasing</t>
   </si>
   <si>
     <t>Ruapehu District</t>
@@ -645,28 +642,28 @@
         <v>36</v>
       </c>
       <c r="F2">
-        <v>0.40655411136905</v>
+        <v>0.719000958565574</v>
       </c>
       <c r="G2">
-        <v>0.024390243902439</v>
+        <v>0.0588235294117647</v>
       </c>
       <c r="H2">
-        <v>0.634146341463415</v>
+        <v>0.676470588235294</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J2">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>-0.242691029900332</v>
+        <v>-0.220203954081096</v>
       </c>
       <c r="M2">
-        <v>0.164386613265134</v>
+        <v>0.372704081632653</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -684,19 +681,19 @@
         <v>5646123.438</v>
       </c>
       <c r="S2" t="s">
+        <v>50</v>
+      </c>
+      <c r="T2" t="s">
         <v>51</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>52</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>53</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>54</v>
-      </c>
-      <c r="W2" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -716,31 +713,31 @@
         <v>37</v>
       </c>
       <c r="F3">
-        <v>0.102241480749488</v>
+        <v>0.5</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.945454545454545</v>
+        <v>0.981818181818182</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>11.31</v>
+        <v>11.32</v>
       </c>
       <c r="K3">
-        <v>-0.0880918003367599</v>
+        <v>-0.014955641492266</v>
       </c>
       <c r="L3">
-        <v>-0.143931743602562</v>
+        <v>-0.116777978239293</v>
       </c>
       <c r="M3">
-        <v>0.006716199912325</v>
+        <v>0.08434305726987359</v>
       </c>
       <c r="N3">
-        <v>-0.778884176275508</v>
+        <v>-0.132116974313304</v>
       </c>
       <c r="O3" t="s">
         <v>39</v>
@@ -755,19 +752,19 @@
         <v>5646123.438</v>
       </c>
       <c r="S3" t="s">
+        <v>50</v>
+      </c>
+      <c r="T3" t="s">
         <v>51</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" t="s">
         <v>52</v>
       </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
         <v>53</v>
       </c>
-      <c r="V3" t="s">
-        <v>54</v>
-      </c>
       <c r="W3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -784,40 +781,40 @@
         <v>0</v>
       </c>
       <c r="E4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F4">
-        <v>0.460427237813098</v>
+        <v>0.0384907350933265</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.357142857142857</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.008</v>
+        <v>0.007</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.0005718242530303</v>
       </c>
       <c r="L4">
-        <v>-0.0006819258417971</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0.0007435159590956</v>
+        <v>0.0011646064041227</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>8.16891790043346</v>
       </c>
       <c r="O4" t="s">
         <v>39</v>
       </c>
       <c r="P4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="Q4">
         <v>1789560.233</v>
@@ -826,19 +823,19 @@
         <v>5646123.438</v>
       </c>
       <c r="S4" t="s">
+        <v>50</v>
+      </c>
+      <c r="T4" t="s">
         <v>51</v>
       </c>
-      <c r="T4" t="s">
+      <c r="U4" t="s">
         <v>52</v>
       </c>
-      <c r="U4" t="s">
+      <c r="V4" t="s">
         <v>53</v>
       </c>
-      <c r="V4" t="s">
-        <v>54</v>
-      </c>
       <c r="W4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -858,37 +855,37 @@
         <v>37</v>
       </c>
       <c r="F5">
-        <v>0.152036016958434</v>
+        <v>0.438865520750858</v>
       </c>
       <c r="G5">
-        <v>0.0363636363636364</v>
+        <v>0.0178571428571429</v>
       </c>
       <c r="H5">
-        <v>0.672727272727273</v>
+        <v>0.767857142857143</v>
       </c>
       <c r="I5">
         <v>1</v>
       </c>
       <c r="J5">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K5">
-        <v>5.98770491803279</v>
+        <v>0.134654377880184</v>
       </c>
       <c r="L5">
-        <v>-4.19957280099892</v>
+        <v>-8.22680871073023</v>
       </c>
       <c r="M5">
-        <v>13.1895796128623</v>
+        <v>5.46743528399812</v>
       </c>
       <c r="N5">
-        <v>12.219805955169</v>
+        <v>0.280529953917051</v>
       </c>
       <c r="O5" t="s">
         <v>39</v>
       </c>
       <c r="P5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Q5">
         <v>1789560.233</v>
@@ -897,19 +894,19 @@
         <v>5646123.438</v>
       </c>
       <c r="S5" t="s">
+        <v>50</v>
+      </c>
+      <c r="T5" t="s">
         <v>51</v>
       </c>
-      <c r="T5" t="s">
+      <c r="U5" t="s">
         <v>52</v>
       </c>
-      <c r="U5" t="s">
+      <c r="V5" t="s">
         <v>53</v>
       </c>
-      <c r="V5" t="s">
-        <v>54</v>
-      </c>
       <c r="W5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -929,16 +926,16 @@
         <v>38</v>
       </c>
       <c r="F6">
-        <v>0.168575373327403</v>
+        <v>0.5</v>
       </c>
       <c r="G6">
-        <v>0.867924528301887</v>
+        <v>0.857142857142857</v>
       </c>
       <c r="H6">
-        <v>0.188679245283019</v>
+        <v>0.142857142857143</v>
       </c>
       <c r="I6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J6">
         <v>0.005</v>
@@ -959,7 +956,7 @@
         <v>39</v>
       </c>
       <c r="P6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Q6">
         <v>1789560.233</v>
@@ -968,19 +965,19 @@
         <v>5646123.438</v>
       </c>
       <c r="S6" t="s">
+        <v>50</v>
+      </c>
+      <c r="T6" t="s">
         <v>51</v>
       </c>
-      <c r="T6" t="s">
+      <c r="U6" t="s">
         <v>52</v>
       </c>
-      <c r="U6" t="s">
+      <c r="V6" t="s">
         <v>53</v>
       </c>
-      <c r="V6" t="s">
-        <v>54</v>
-      </c>
       <c r="W6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -1000,13 +997,13 @@
         <v>38</v>
       </c>
       <c r="F7">
-        <v>0.918578376120242</v>
+        <v>0.927030303709088</v>
       </c>
       <c r="G7">
-        <v>0.714285714285714</v>
+        <v>0.754385964912281</v>
       </c>
       <c r="H7">
-        <v>0.0714285714285714</v>
+        <v>0.0701754385964912</v>
       </c>
       <c r="I7">
         <v>1</v>
@@ -1030,7 +1027,7 @@
         <v>39</v>
       </c>
       <c r="P7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q7">
         <v>1789560.233</v>
@@ -1039,19 +1036,19 @@
         <v>5646123.438</v>
       </c>
       <c r="S7" t="s">
+        <v>50</v>
+      </c>
+      <c r="T7" t="s">
         <v>51</v>
       </c>
-      <c r="T7" t="s">
+      <c r="U7" t="s">
         <v>52</v>
       </c>
-      <c r="U7" t="s">
+      <c r="V7" t="s">
         <v>53</v>
       </c>
-      <c r="V7" t="s">
-        <v>54</v>
-      </c>
       <c r="W7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -1068,16 +1065,16 @@
         <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F8">
-        <v>0.0002815952365126</v>
+        <v>0.102951605366034</v>
       </c>
       <c r="G8">
-        <v>0.232142857142857</v>
+        <v>0.210526315789474</v>
       </c>
       <c r="H8">
-        <v>0.678571428571429</v>
+        <v>0.719298245614035</v>
       </c>
       <c r="I8">
         <v>1</v>
@@ -1086,22 +1083,22 @@
         <v>0.044</v>
       </c>
       <c r="K8">
-        <v>0.0099192972632463</v>
+        <v>0.0017488422291993</v>
       </c>
       <c r="L8">
-        <v>0.0033495438815968</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>0.0149038633087759</v>
+        <v>0.009030906593406499</v>
       </c>
       <c r="N8">
-        <v>22.5438574164689</v>
+        <v>3.97464142999857</v>
       </c>
       <c r="O8" t="s">
         <v>39</v>
       </c>
       <c r="P8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Q8">
         <v>1789560.233</v>
@@ -1110,19 +1107,19 @@
         <v>5646123.438</v>
       </c>
       <c r="S8" t="s">
+        <v>50</v>
+      </c>
+      <c r="T8" t="s">
         <v>51</v>
       </c>
-      <c r="T8" t="s">
+      <c r="U8" t="s">
         <v>52</v>
       </c>
-      <c r="U8" t="s">
+      <c r="V8" t="s">
         <v>53</v>
       </c>
-      <c r="V8" t="s">
-        <v>54</v>
-      </c>
       <c r="W8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1136,43 +1133,43 @@
         <v>5</v>
       </c>
       <c r="D9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" t="s">
         <v>37</v>
       </c>
       <c r="F9">
-        <v>0.019607004146115</v>
+        <v>0.0285799862605099</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.818181818181818</v>
+        <v>0.785714285714286</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>7.84</v>
+        <v>7.77</v>
       </c>
       <c r="K9">
-        <v>-0.0569974464463047</v>
+        <v>-0.0520419783096484</v>
       </c>
       <c r="L9">
-        <v>-0.116722655839948</v>
+        <v>-0.10715521041957</v>
       </c>
       <c r="M9">
-        <v>-0.025837030269252</v>
+        <v>-0.0054679096983354</v>
       </c>
       <c r="N9">
-        <v>-0.72700824548858</v>
+        <v>-0.669780930626105</v>
       </c>
       <c r="O9" t="s">
         <v>39</v>
       </c>
       <c r="P9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Q9">
         <v>1789560.233</v>
@@ -1181,16 +1178,16 @@
         <v>5646123.438</v>
       </c>
       <c r="S9" t="s">
+        <v>50</v>
+      </c>
+      <c r="T9" t="s">
         <v>51</v>
       </c>
-      <c r="T9" t="s">
+      <c r="U9" t="s">
         <v>52</v>
       </c>
-      <c r="U9" t="s">
+      <c r="V9" t="s">
         <v>53</v>
-      </c>
-      <c r="V9" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1207,40 +1204,40 @@
         <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F10">
-        <v>0.0060978008349758</v>
+        <v>0.06418365865933449</v>
       </c>
       <c r="G10">
-        <v>0.0714285714285714</v>
+        <v>0.0526315789473684</v>
       </c>
       <c r="H10">
-        <v>0.839285714285714</v>
+        <v>0.859649122807018</v>
       </c>
       <c r="I10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J10">
-        <v>0.055</v>
+        <v>0.059</v>
       </c>
       <c r="K10">
-        <v>0.0133046372626703</v>
+        <v>0.0053379597216784</v>
       </c>
       <c r="L10">
-        <v>0.0028365096517086</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>0.017527517437631</v>
+        <v>0.0131125527549446</v>
       </c>
       <c r="N10">
-        <v>24.1902495684914</v>
+        <v>9.047389358776989</v>
       </c>
       <c r="O10" t="s">
         <v>39</v>
       </c>
       <c r="P10" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="Q10">
         <v>1789560.233</v>
@@ -1249,19 +1246,19 @@
         <v>5646123.438</v>
       </c>
       <c r="S10" t="s">
+        <v>50</v>
+      </c>
+      <c r="T10" t="s">
         <v>51</v>
       </c>
-      <c r="T10" t="s">
+      <c r="U10" t="s">
         <v>52</v>
       </c>
-      <c r="U10" t="s">
+      <c r="V10" t="s">
         <v>53</v>
       </c>
-      <c r="V10" t="s">
-        <v>54</v>
-      </c>
       <c r="W10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1281,13 +1278,13 @@
         <v>37</v>
       </c>
       <c r="F11">
-        <v>0.0214800730142125</v>
+        <v>0.160784028874301</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.5</v>
+        <v>0.473684210526316</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -1296,22 +1293,22 @@
         <v>0.16</v>
       </c>
       <c r="K11">
-        <v>0.0183007260596546</v>
+        <v>0.0100023841604256</v>
       </c>
       <c r="L11">
-        <v>0.00405268069938</v>
+        <v>-0.0046404541932884</v>
       </c>
       <c r="M11">
-        <v>0.0277024917936252</v>
+        <v>0.0200686813186813</v>
       </c>
       <c r="N11">
-        <v>11.4379537872841</v>
+        <v>6.25149010026598</v>
       </c>
       <c r="O11" t="s">
         <v>39</v>
       </c>
       <c r="P11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Q11">
         <v>1789560.233</v>
@@ -1320,19 +1317,19 @@
         <v>5646123.438</v>
       </c>
       <c r="S11" t="s">
+        <v>50</v>
+      </c>
+      <c r="T11" t="s">
         <v>51</v>
       </c>
-      <c r="T11" t="s">
+      <c r="U11" t="s">
         <v>52</v>
       </c>
-      <c r="U11" t="s">
+      <c r="V11" t="s">
         <v>53</v>
       </c>
-      <c r="V11" t="s">
-        <v>54</v>
-      </c>
       <c r="W11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1349,40 +1346,40 @@
         <v>0</v>
       </c>
       <c r="E12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F12">
-        <v>0.112475455343972</v>
+        <v>0.289797250703204</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.446428571428571</v>
+        <v>0.403508771929825</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.015</v>
+        <v>0.013</v>
       </c>
       <c r="K12">
-        <v>0.0006523340700555</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>-0.0004253005096304</v>
       </c>
       <c r="M12">
-        <v>0.0018755204596758</v>
+        <v>0.0008231529086847</v>
       </c>
       <c r="N12">
-        <v>4.34889380037059</v>
+        <v>0</v>
       </c>
       <c r="O12" t="s">
         <v>39</v>
       </c>
       <c r="P12" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="Q12">
         <v>1789560.233</v>
@@ -1391,19 +1388,19 @@
         <v>5646123.438</v>
       </c>
       <c r="S12" t="s">
+        <v>50</v>
+      </c>
+      <c r="T12" t="s">
         <v>51</v>
       </c>
-      <c r="T12" t="s">
+      <c r="U12" t="s">
         <v>52</v>
       </c>
-      <c r="U12" t="s">
+      <c r="V12" t="s">
         <v>53</v>
       </c>
-      <c r="V12" t="s">
-        <v>54</v>
-      </c>
       <c r="W12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1417,43 +1414,43 @@
         <v>5</v>
       </c>
       <c r="D13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" t="s">
         <v>37</v>
       </c>
       <c r="F13">
-        <v>0.5</v>
+        <v>0.909188205798095</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.857142857142857</v>
+        <v>0.859649122807018</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>1.04</v>
+        <v>1.08</v>
       </c>
       <c r="K13">
-        <v>-0.0057560626873126</v>
+        <v>-0.0689557762134949</v>
       </c>
       <c r="L13">
-        <v>-0.116391218729894</v>
+        <v>-0.194524049353359</v>
       </c>
       <c r="M13">
-        <v>0.136477347730091</v>
+        <v>0.0169420627288183</v>
       </c>
       <c r="N13">
-        <v>-0.553467566087753</v>
+        <v>-6.38479409384212</v>
       </c>
       <c r="O13" t="s">
         <v>39</v>
       </c>
       <c r="P13" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="Q13">
         <v>1789560.233</v>
@@ -1462,19 +1459,19 @@
         <v>5646123.438</v>
       </c>
       <c r="S13" t="s">
+        <v>50</v>
+      </c>
+      <c r="T13" t="s">
         <v>51</v>
       </c>
-      <c r="T13" t="s">
+      <c r="U13" t="s">
         <v>52</v>
       </c>
-      <c r="U13" t="s">
+      <c r="V13" t="s">
         <v>53</v>
       </c>
-      <c r="V13" t="s">
-        <v>54</v>
-      </c>
       <c r="W13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1491,40 +1488,40 @@
         <v>0</v>
       </c>
       <c r="E14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F14">
-        <v>0.022837762713854</v>
+        <v>0.019833960077652</v>
       </c>
       <c r="G14">
-        <v>0.0842105263157895</v>
+        <v>0.0786516853932584</v>
       </c>
       <c r="H14">
-        <v>0.557894736842105</v>
+        <v>0.617977528089888</v>
       </c>
       <c r="I14">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J14">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="K14">
-        <v>-0.06646951774340321</v>
+        <v>-0.0891042757270523</v>
       </c>
       <c r="L14">
-        <v>-0.145812515486057</v>
+        <v>-0.173915139974877</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>-0.0046801165737826</v>
       </c>
       <c r="N14">
-        <v>-2.41707337248739</v>
+        <v>-3.18229556168044</v>
       </c>
       <c r="O14" t="s">
         <v>39</v>
       </c>
       <c r="P14" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="Q14">
         <v>1789560.233</v>
@@ -1533,19 +1530,19 @@
         <v>5646123.438</v>
       </c>
       <c r="S14" t="s">
+        <v>50</v>
+      </c>
+      <c r="T14" t="s">
         <v>51</v>
       </c>
-      <c r="T14" t="s">
+      <c r="U14" t="s">
         <v>52</v>
       </c>
-      <c r="U14" t="s">
+      <c r="V14" t="s">
         <v>53</v>
       </c>
-      <c r="V14" t="s">
+      <c r="W14" t="s">
         <v>54</v>
-      </c>
-      <c r="W14" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1565,37 +1562,37 @@
         <v>37</v>
       </c>
       <c r="F15">
-        <v>0.945187234608619</v>
+        <v>0.976571987401628</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.876106194690266</v>
+        <v>0.910714285714286</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>11.06</v>
+        <v>11.145</v>
       </c>
       <c r="K15">
-        <v>0.0262885669312751</v>
+        <v>0.0301030219780213</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.0071180372912943</v>
       </c>
       <c r="M15">
-        <v>0.0599924743367947</v>
+        <v>0.0602060439560438</v>
       </c>
       <c r="N15">
-        <v>0.237690478582958</v>
+        <v>0.270103382485611</v>
       </c>
       <c r="O15" t="s">
         <v>39</v>
       </c>
       <c r="P15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Q15">
         <v>1789560.233</v>
@@ -1604,19 +1601,19 @@
         <v>5646123.438</v>
       </c>
       <c r="S15" t="s">
+        <v>50</v>
+      </c>
+      <c r="T15" t="s">
         <v>51</v>
       </c>
-      <c r="T15" t="s">
+      <c r="U15" t="s">
         <v>52</v>
       </c>
-      <c r="U15" t="s">
+      <c r="V15" t="s">
         <v>53</v>
       </c>
-      <c r="V15" t="s">
-        <v>54</v>
-      </c>
       <c r="W15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -1636,13 +1633,13 @@
         <v>37</v>
       </c>
       <c r="F16">
-        <v>0.999852177095218</v>
+        <v>0.9993147821810739</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.258620689655172</v>
+        <v>0.25</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1651,22 +1648,22 @@
         <v>0.01</v>
       </c>
       <c r="K16">
-        <v>-0.0006156817164735</v>
+        <v>-0.0005115546218487</v>
       </c>
       <c r="L16">
-        <v>-0.000871285660414</v>
+        <v>-0.0007876010781671</v>
       </c>
       <c r="M16">
-        <v>-0.0003519975556925</v>
+        <v>-0.0002358177289965</v>
       </c>
       <c r="N16">
-        <v>-6.15681716473572</v>
+        <v>-5.1155462184874</v>
       </c>
       <c r="O16" t="s">
         <v>39</v>
       </c>
       <c r="P16" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Q16">
         <v>1789560.233</v>
@@ -1675,19 +1672,19 @@
         <v>5646123.438</v>
       </c>
       <c r="S16" t="s">
+        <v>50</v>
+      </c>
+      <c r="T16" t="s">
         <v>51</v>
       </c>
-      <c r="T16" t="s">
+      <c r="U16" t="s">
         <v>52</v>
       </c>
-      <c r="U16" t="s">
+      <c r="V16" t="s">
         <v>53</v>
       </c>
-      <c r="V16" t="s">
-        <v>54</v>
-      </c>
       <c r="W16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1707,13 +1704,13 @@
         <v>37</v>
       </c>
       <c r="F17">
-        <v>0.07339832358813279</v>
+        <v>0.157559696424987</v>
       </c>
       <c r="G17">
         <v>0.0263157894736842</v>
       </c>
       <c r="H17">
-        <v>0.491228070175439</v>
+        <v>0.56140350877193</v>
       </c>
       <c r="I17">
         <v>1</v>
@@ -1722,22 +1719,22 @@
         <v>48</v>
       </c>
       <c r="K17">
-        <v>2.24692412850308</v>
+        <v>1.42485727878211</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>-0.790212959723279</v>
       </c>
       <c r="M17">
-        <v>5.48197879705584</v>
+        <v>3.7411051212938</v>
       </c>
       <c r="N17">
-        <v>4.68109193438141</v>
+        <v>2.9684526641294</v>
       </c>
       <c r="O17" t="s">
         <v>39</v>
       </c>
       <c r="P17" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="Q17">
         <v>1789560.233</v>
@@ -1746,19 +1743,19 @@
         <v>5646123.438</v>
       </c>
       <c r="S17" t="s">
+        <v>50</v>
+      </c>
+      <c r="T17" t="s">
         <v>51</v>
       </c>
-      <c r="T17" t="s">
+      <c r="U17" t="s">
         <v>52</v>
       </c>
-      <c r="U17" t="s">
+      <c r="V17" t="s">
         <v>53</v>
       </c>
-      <c r="V17" t="s">
-        <v>54</v>
-      </c>
       <c r="W17" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1778,7 +1775,7 @@
         <v>38</v>
       </c>
       <c r="F18">
-        <v>0.231934062630747</v>
+        <v>0.251168006552852</v>
       </c>
       <c r="G18">
         <v>0.905660377358491</v>
@@ -1808,7 +1805,7 @@
         <v>39</v>
       </c>
       <c r="P18" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="Q18">
         <v>1789560.233</v>
@@ -1817,19 +1814,19 @@
         <v>5646123.438</v>
       </c>
       <c r="S18" t="s">
+        <v>50</v>
+      </c>
+      <c r="T18" t="s">
         <v>51</v>
       </c>
-      <c r="T18" t="s">
+      <c r="U18" t="s">
         <v>52</v>
       </c>
-      <c r="U18" t="s">
+      <c r="V18" t="s">
         <v>53</v>
       </c>
-      <c r="V18" t="s">
-        <v>54</v>
-      </c>
       <c r="W18" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1849,13 +1846,13 @@
         <v>38</v>
       </c>
       <c r="F19">
-        <v>0.9997183811561799</v>
+        <v>0.999705813608331</v>
       </c>
       <c r="G19">
-        <v>0.594827586206897</v>
+        <v>0.681034482758621</v>
       </c>
       <c r="H19">
-        <v>0.0862068965517241</v>
+        <v>0.0603448275862069</v>
       </c>
       <c r="I19">
         <v>1</v>
@@ -1879,7 +1876,7 @@
         <v>39</v>
       </c>
       <c r="P19" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Q19">
         <v>1789560.233</v>
@@ -1888,19 +1885,19 @@
         <v>5646123.438</v>
       </c>
       <c r="S19" t="s">
+        <v>50</v>
+      </c>
+      <c r="T19" t="s">
         <v>51</v>
       </c>
-      <c r="T19" t="s">
+      <c r="U19" t="s">
         <v>52</v>
       </c>
-      <c r="U19" t="s">
+      <c r="V19" t="s">
         <v>53</v>
       </c>
-      <c r="V19" t="s">
-        <v>54</v>
-      </c>
       <c r="W19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -1917,40 +1914,40 @@
         <v>1</v>
       </c>
       <c r="E20" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F20">
-        <v>0.007455847251571</v>
+        <v>0.0298008692211614</v>
       </c>
       <c r="G20">
-        <v>0.275862068965517</v>
+        <v>0.258620689655172</v>
       </c>
       <c r="H20">
-        <v>0.629310344827586</v>
+        <v>0.620689655172414</v>
       </c>
       <c r="I20">
         <v>1</v>
       </c>
       <c r="J20">
-        <v>0.0435</v>
+        <v>0.041</v>
       </c>
       <c r="K20">
-        <v>0.000456877217169</v>
+        <v>0</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.0021855689277995</v>
+        <v>0.0017939466089026</v>
       </c>
       <c r="N20">
-        <v>1.05029245326226</v>
+        <v>0</v>
       </c>
       <c r="O20" t="s">
         <v>39</v>
       </c>
       <c r="P20" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="Q20">
         <v>1789560.233</v>
@@ -1959,19 +1956,19 @@
         <v>5646123.438</v>
       </c>
       <c r="S20" t="s">
+        <v>50</v>
+      </c>
+      <c r="T20" t="s">
         <v>51</v>
       </c>
-      <c r="T20" t="s">
+      <c r="U20" t="s">
         <v>52</v>
       </c>
-      <c r="U20" t="s">
+      <c r="V20" t="s">
         <v>53</v>
       </c>
-      <c r="V20" t="s">
-        <v>54</v>
-      </c>
       <c r="W20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -1991,7 +1988,7 @@
         <v>37</v>
       </c>
       <c r="F21">
-        <v>0.361338159310276</v>
+        <v>0.020430079335328</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -2006,22 +2003,22 @@
         <v>7.89</v>
       </c>
       <c r="K21">
-        <v>-0.0048068366326344</v>
+        <v>-0.0228906063484705</v>
       </c>
       <c r="L21">
-        <v>-0.0245867614061331</v>
+        <v>-0.0401868949283955</v>
       </c>
       <c r="M21">
-        <v>0.0162137243549169</v>
+        <v>-0.0051499024579837</v>
       </c>
       <c r="N21">
-        <v>-0.0609231512374456</v>
+        <v>-0.290121753466039</v>
       </c>
       <c r="O21" t="s">
         <v>39</v>
       </c>
       <c r="P21" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="Q21">
         <v>1789560.233</v>
@@ -2030,16 +2027,16 @@
         <v>5646123.438</v>
       </c>
       <c r="S21" t="s">
+        <v>50</v>
+      </c>
+      <c r="T21" t="s">
         <v>51</v>
       </c>
-      <c r="T21" t="s">
+      <c r="U21" t="s">
         <v>52</v>
       </c>
-      <c r="U21" t="s">
+      <c r="V21" t="s">
         <v>53</v>
-      </c>
-      <c r="V21" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -2059,7 +2056,7 @@
         <v>37</v>
       </c>
       <c r="F22">
-        <v>0.07307266465746989</v>
+        <v>0.197830831816221</v>
       </c>
       <c r="G22">
         <v>0.103448275862069</v>
@@ -2071,25 +2068,25 @@
         <v>2</v>
       </c>
       <c r="J22">
-        <v>0.049</v>
+        <v>0.046</v>
       </c>
       <c r="K22">
-        <v>0.0012921326666171</v>
+        <v>0.0005005167529838</v>
       </c>
       <c r="L22">
-        <v>-1.19541347115276E-05</v>
+        <v>-0.0004945689134709</v>
       </c>
       <c r="M22">
-        <v>0.0031250855900789</v>
+        <v>0.0028149642402436</v>
       </c>
       <c r="N22">
-        <v>2.63700544207583</v>
+        <v>1.088079897791</v>
       </c>
       <c r="O22" t="s">
         <v>39</v>
       </c>
       <c r="P22" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="Q22">
         <v>1789560.233</v>
@@ -2098,19 +2095,19 @@
         <v>5646123.438</v>
       </c>
       <c r="S22" t="s">
+        <v>50</v>
+      </c>
+      <c r="T22" t="s">
         <v>51</v>
       </c>
-      <c r="T22" t="s">
+      <c r="U22" t="s">
         <v>52</v>
       </c>
-      <c r="U22" t="s">
+      <c r="V22" t="s">
         <v>53</v>
       </c>
-      <c r="V22" t="s">
-        <v>54</v>
-      </c>
       <c r="W22" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -2127,16 +2124,16 @@
         <v>1</v>
       </c>
       <c r="E23" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F23">
-        <v>0.231657353217304</v>
+        <v>0.5325213238687569</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.431034482758621</v>
+        <v>0.336206896551724</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -2145,22 +2142,22 @@
         <v>0.15</v>
       </c>
       <c r="K23">
-        <v>0.0025819287908997</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>-0.0016685298353537</v>
+        <v>-0.0041744838182806</v>
       </c>
       <c r="M23">
-        <v>0.0071477495107632</v>
+        <v>0.0037993526550183</v>
       </c>
       <c r="N23">
-        <v>1.7212858605998</v>
+        <v>0</v>
       </c>
       <c r="O23" t="s">
         <v>39</v>
       </c>
       <c r="P23" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Q23">
         <v>1789560.233</v>
@@ -2169,19 +2166,19 @@
         <v>5646123.438</v>
       </c>
       <c r="S23" t="s">
+        <v>50</v>
+      </c>
+      <c r="T23" t="s">
         <v>51</v>
       </c>
-      <c r="T23" t="s">
+      <c r="U23" t="s">
         <v>52</v>
       </c>
-      <c r="U23" t="s">
+      <c r="V23" t="s">
         <v>53</v>
       </c>
-      <c r="V23" t="s">
-        <v>54</v>
-      </c>
       <c r="W23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="24" spans="1:23">
@@ -2201,7 +2198,7 @@
         <v>37</v>
       </c>
       <c r="F24">
-        <v>0.121413250282443</v>
+        <v>0.09340212287025321</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -2213,25 +2210,25 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.014</v>
+        <v>0.0135</v>
       </c>
       <c r="K24">
-        <v>0.0001713586604831</v>
+        <v>0.0001445389790265</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.0005180088363264</v>
+        <v>0.0003983097055616</v>
       </c>
       <c r="N24">
-        <v>1.22399043202268</v>
+        <v>1.0706591039001</v>
       </c>
       <c r="O24" t="s">
         <v>39</v>
       </c>
       <c r="P24" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="Q24">
         <v>1789560.233</v>
@@ -2240,19 +2237,19 @@
         <v>5646123.438</v>
       </c>
       <c r="S24" t="s">
+        <v>50</v>
+      </c>
+      <c r="T24" t="s">
         <v>51</v>
       </c>
-      <c r="T24" t="s">
+      <c r="U24" t="s">
         <v>52</v>
       </c>
-      <c r="U24" t="s">
+      <c r="V24" t="s">
         <v>53</v>
       </c>
-      <c r="V24" t="s">
-        <v>54</v>
-      </c>
       <c r="W24" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="25" spans="1:23">
@@ -2272,37 +2269,37 @@
         <v>37</v>
       </c>
       <c r="F25">
-        <v>0.288289819896242</v>
+        <v>0.695212336692308</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.827586206896552</v>
+        <v>0.767241379310345</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>1.15</v>
+        <v>1.115</v>
       </c>
       <c r="K25">
-        <v>0.013091566032888</v>
+        <v>-0.0097410506837493</v>
       </c>
       <c r="L25">
-        <v>-0.0275401235382334</v>
+        <v>-0.0467090348572109</v>
       </c>
       <c r="M25">
-        <v>0.0546609154524742</v>
+        <v>0.0223146768593333</v>
       </c>
       <c r="N25">
-        <v>1.13839704633808</v>
+        <v>-0.87363683262326</v>
       </c>
       <c r="O25" t="s">
         <v>39</v>
       </c>
       <c r="P25" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="Q25">
         <v>1789560.233</v>
@@ -2311,19 +2308,19 @@
         <v>5646123.438</v>
       </c>
       <c r="S25" t="s">
+        <v>50</v>
+      </c>
+      <c r="T25" t="s">
         <v>51</v>
       </c>
-      <c r="T25" t="s">
+      <c r="U25" t="s">
         <v>52</v>
       </c>
-      <c r="U25" t="s">
+      <c r="V25" t="s">
         <v>53</v>
       </c>
-      <c r="V25" t="s">
-        <v>54</v>
-      </c>
       <c r="W25" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
